--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1020426666666667</v>
+        <v>0.1812133333333333</v>
       </c>
       <c r="H2">
-        <v>0.306128</v>
+        <v>0.54364</v>
       </c>
       <c r="I2">
-        <v>0.01094743355871445</v>
+        <v>0.02013717757698385</v>
       </c>
       <c r="J2">
-        <v>0.01094743355871445</v>
+        <v>0.02013717757698385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N2">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P2">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q2">
-        <v>0.06312413782755556</v>
+        <v>0.06089794875555556</v>
       </c>
       <c r="R2">
-        <v>0.5681172404479999</v>
+        <v>0.5480815388</v>
       </c>
       <c r="S2">
-        <v>0.0006097105995755828</v>
+        <v>0.0003163281197749896</v>
       </c>
       <c r="T2">
-        <v>0.0006097105995755828</v>
+        <v>0.0003163281197749896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1020426666666667</v>
+        <v>0.1812133333333333</v>
       </c>
       <c r="H3">
-        <v>0.306128</v>
+        <v>0.54364</v>
       </c>
       <c r="I3">
-        <v>0.01094743355871445</v>
+        <v>0.02013717757698385</v>
       </c>
       <c r="J3">
-        <v>0.01094743355871445</v>
+        <v>0.02013717757698385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P3">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q3">
-        <v>0.2386392252053333</v>
+        <v>0.4237894880266667</v>
       </c>
       <c r="R3">
-        <v>2.147753026848</v>
+        <v>3.81410539224</v>
       </c>
       <c r="S3">
-        <v>0.002304995681361701</v>
+        <v>0.0022013308275125</v>
       </c>
       <c r="T3">
-        <v>0.002304995681361701</v>
+        <v>0.0022013308275125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1020426666666667</v>
+        <v>0.1812133333333333</v>
       </c>
       <c r="H4">
-        <v>0.306128</v>
+        <v>0.54364</v>
       </c>
       <c r="I4">
-        <v>0.01094743355871445</v>
+        <v>0.02013717757698385</v>
       </c>
       <c r="J4">
-        <v>0.01094743355871445</v>
+        <v>0.02013717757698385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N4">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P4">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q4">
-        <v>0.8147697061955556</v>
+        <v>3.350972677413334</v>
       </c>
       <c r="R4">
-        <v>7.33292735576</v>
+        <v>30.15875409672</v>
       </c>
       <c r="S4">
-        <v>0.007869790276385482</v>
+        <v>0.01740628228248527</v>
       </c>
       <c r="T4">
-        <v>0.007869790276385482</v>
+        <v>0.01740628228248527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1020426666666667</v>
+        <v>0.1812133333333333</v>
       </c>
       <c r="H5">
-        <v>0.306128</v>
+        <v>0.54364</v>
       </c>
       <c r="I5">
-        <v>0.01094743355871445</v>
+        <v>0.02013717757698385</v>
       </c>
       <c r="J5">
-        <v>0.01094743355871445</v>
+        <v>0.02013717757698385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N5">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O5">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P5">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q5">
-        <v>0.01686908139733333</v>
+        <v>0.04105122287111111</v>
       </c>
       <c r="R5">
-        <v>0.151821732576</v>
+        <v>0.36946100584</v>
       </c>
       <c r="S5">
-        <v>0.0001629370013916863</v>
+        <v>0.000213236347211087</v>
       </c>
       <c r="T5">
-        <v>0.0001629370013916863</v>
+        <v>0.000213236347211087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>26.002489</v>
       </c>
       <c r="I6">
-        <v>0.9298741725314357</v>
+        <v>0.9631681598789071</v>
       </c>
       <c r="J6">
-        <v>0.9298741725314356</v>
+        <v>0.9631681598789072</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N6">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P6">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q6">
-        <v>5.361759458447111</v>
+        <v>2.912769926125555</v>
       </c>
       <c r="R6">
-        <v>48.25583512602399</v>
+        <v>26.21492933513</v>
       </c>
       <c r="S6">
-        <v>0.0517887718818517</v>
+        <v>0.01513008324413187</v>
       </c>
       <c r="T6">
-        <v>0.05178877188185169</v>
+        <v>0.01513008324413187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>26.002489</v>
       </c>
       <c r="I7">
-        <v>0.9298741725314357</v>
+        <v>0.9631681598789071</v>
       </c>
       <c r="J7">
-        <v>0.9298741725314356</v>
+        <v>0.9631681598789072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P7">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q7">
         <v>20.26999761005266</v>
@@ -883,10 +883,10 @@
         <v>182.429978490474</v>
       </c>
       <c r="S7">
-        <v>0.1957861575865492</v>
+        <v>0.1052904139278837</v>
       </c>
       <c r="T7">
-        <v>0.1957861575865491</v>
+        <v>0.1052904139278837</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>26.002489</v>
       </c>
       <c r="I8">
-        <v>0.9298741725314357</v>
+        <v>0.9631681598789071</v>
       </c>
       <c r="J8">
-        <v>0.9298741725314356</v>
+        <v>0.9631681598789072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N8">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P8">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q8">
-        <v>69.20647677730611</v>
+        <v>160.2781807514913</v>
       </c>
       <c r="R8">
-        <v>622.8582909957549</v>
+        <v>1442.503626763422</v>
       </c>
       <c r="S8">
-        <v>0.6684593865769235</v>
+        <v>0.8325484945574609</v>
       </c>
       <c r="T8">
-        <v>0.6684593865769234</v>
+        <v>0.832548494557461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>26.002489</v>
       </c>
       <c r="I9">
-        <v>0.9298741725314357</v>
+        <v>0.9631681598789071</v>
       </c>
       <c r="J9">
-        <v>0.9298741725314356</v>
+        <v>0.9631681598789072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N9">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O9">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P9">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q9">
-        <v>1.432858488848666</v>
+        <v>1.963494171037111</v>
       </c>
       <c r="R9">
-        <v>12.895726399638</v>
+        <v>17.671447539334</v>
       </c>
       <c r="S9">
-        <v>0.01383985648611139</v>
+        <v>0.01019916814943063</v>
       </c>
       <c r="T9">
-        <v>0.01383985648611139</v>
+        <v>0.01019916814943063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5411539999999999</v>
+        <v>0.1468193333333333</v>
       </c>
       <c r="H10">
-        <v>1.623462</v>
+        <v>0.440458</v>
       </c>
       <c r="I10">
-        <v>0.05805657234914048</v>
+        <v>0.01631517357295848</v>
       </c>
       <c r="J10">
-        <v>0.05805657234914047</v>
+        <v>0.01631517357295849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N10">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P10">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q10">
-        <v>0.3347607505546666</v>
+        <v>0.04933961576222222</v>
       </c>
       <c r="R10">
-        <v>3.012846754991999</v>
+        <v>0.44405654186</v>
       </c>
       <c r="S10">
-        <v>0.003233425199289757</v>
+        <v>0.0002562895500328386</v>
       </c>
       <c r="T10">
-        <v>0.003233425199289756</v>
+        <v>0.0002562895500328387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5411539999999999</v>
+        <v>0.1468193333333333</v>
       </c>
       <c r="H11">
-        <v>1.623462</v>
+        <v>0.440458</v>
       </c>
       <c r="I11">
-        <v>0.05805657234914048</v>
+        <v>0.01631517357295848</v>
       </c>
       <c r="J11">
-        <v>0.05805657234914047</v>
+        <v>0.01631517357295849</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.015866</v>
       </c>
       <c r="O11">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P11">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q11">
-        <v>1.265554649788</v>
+        <v>0.3433549229586667</v>
       </c>
       <c r="R11">
-        <v>11.389991848092</v>
+        <v>3.090194306628</v>
       </c>
       <c r="S11">
-        <v>0.01222388314317811</v>
+        <v>0.001783521767391106</v>
       </c>
       <c r="T11">
-        <v>0.01222388314317811</v>
+        <v>0.001783521767391106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5411539999999999</v>
+        <v>0.1468193333333333</v>
       </c>
       <c r="H12">
-        <v>1.623462</v>
+        <v>0.440458</v>
       </c>
       <c r="I12">
-        <v>0.05805657234914048</v>
+        <v>0.01631517357295848</v>
       </c>
       <c r="J12">
-        <v>0.05805657234914047</v>
+        <v>0.01631517357295849</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N12">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P12">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q12">
-        <v>4.320897326476666</v>
+        <v>2.714963438209334</v>
       </c>
       <c r="R12">
-        <v>38.88807593828999</v>
+        <v>24.434670943884</v>
       </c>
       <c r="S12">
-        <v>0.04173517437699696</v>
+        <v>0.01410259782499245</v>
       </c>
       <c r="T12">
-        <v>0.04173517437699695</v>
+        <v>0.01410259782499245</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5411539999999999</v>
+        <v>0.1468193333333333</v>
       </c>
       <c r="H13">
-        <v>1.623462</v>
+        <v>0.440458</v>
       </c>
       <c r="I13">
-        <v>0.05805657234914048</v>
+        <v>0.01631517357295848</v>
       </c>
       <c r="J13">
-        <v>0.05805657234914047</v>
+        <v>0.01631517357295849</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N13">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O13">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P13">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q13">
-        <v>0.08946033235599998</v>
+        <v>0.03325976661644444</v>
       </c>
       <c r="R13">
-        <v>0.8051429912039999</v>
+        <v>0.299337899548</v>
       </c>
       <c r="S13">
-        <v>0.0008640896296756577</v>
+        <v>0.0001727644305420884</v>
       </c>
       <c r="T13">
-        <v>0.0008640896296756577</v>
+        <v>0.0001727644305420884</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01045666666666667</v>
+        <v>0.003415</v>
       </c>
       <c r="H14">
-        <v>0.03137</v>
+        <v>0.010245</v>
       </c>
       <c r="I14">
-        <v>0.001121821560709482</v>
+        <v>0.0003794889711503928</v>
       </c>
       <c r="J14">
-        <v>0.001121821560709482</v>
+        <v>0.0003794889711503928</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6186053333333333</v>
+        <v>0.3360566666666667</v>
       </c>
       <c r="N14">
-        <v>1.855816</v>
+        <v>1.00817</v>
       </c>
       <c r="O14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="P14">
-        <v>0.0556943868446899</v>
+        <v>0.01570866217798777</v>
       </c>
       <c r="Q14">
-        <v>0.00646854976888889</v>
+        <v>0.001147633516666667</v>
       </c>
       <c r="R14">
-        <v>0.05821694792</v>
+        <v>0.01032870165</v>
       </c>
       <c r="S14">
-        <v>6.247916397286767E-05</v>
+        <v>5.961264048073668E-06</v>
       </c>
       <c r="T14">
-        <v>6.247916397286767E-05</v>
+        <v>5.961264048073669E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01045666666666667</v>
+        <v>0.003415</v>
       </c>
       <c r="H15">
-        <v>0.03137</v>
+        <v>0.010245</v>
       </c>
       <c r="I15">
-        <v>0.001121821560709482</v>
+        <v>0.0003794889711503928</v>
       </c>
       <c r="J15">
-        <v>0.001121821560709482</v>
+        <v>0.0003794889711503928</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.015866</v>
       </c>
       <c r="O15">
-        <v>0.2105512373287584</v>
+        <v>0.109316751024163</v>
       </c>
       <c r="P15">
-        <v>0.2105512373287584</v>
+        <v>0.1093167510241629</v>
       </c>
       <c r="Q15">
-        <v>0.02445419071333334</v>
+        <v>0.007986394129999999</v>
       </c>
       <c r="R15">
-        <v>0.22008771642</v>
+        <v>0.07187754717</v>
       </c>
       <c r="S15">
-        <v>0.0002362009176694604</v>
+        <v>4.148450137566325E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002362009176694604</v>
+        <v>4.148450137566325E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01045666666666667</v>
+        <v>0.003415</v>
       </c>
       <c r="H16">
-        <v>0.03137</v>
+        <v>0.010245</v>
       </c>
       <c r="I16">
-        <v>0.001121821560709482</v>
+        <v>0.0003794889711503928</v>
       </c>
       <c r="J16">
-        <v>0.001121821560709482</v>
+        <v>0.0003794889711503928</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.984598333333333</v>
+        <v>18.491866</v>
       </c>
       <c r="N16">
-        <v>23.953795</v>
+        <v>55.47559800000001</v>
       </c>
       <c r="O16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="P16">
-        <v>0.7188707959886103</v>
+        <v>0.864385399390831</v>
       </c>
       <c r="Q16">
-        <v>0.0834922832388889</v>
+        <v>0.06314972239000001</v>
       </c>
       <c r="R16">
-        <v>0.7514305491500001</v>
+        <v>0.5683475015100001</v>
       </c>
       <c r="S16">
-        <v>0.0008064447583044105</v>
+        <v>0.0003280247258922478</v>
       </c>
       <c r="T16">
-        <v>0.0008064447583044105</v>
+        <v>0.0003280247258922478</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01045666666666667</v>
+        <v>0.003415</v>
       </c>
       <c r="H17">
-        <v>0.03137</v>
+        <v>0.010245</v>
       </c>
       <c r="I17">
-        <v>0.001121821560709482</v>
+        <v>0.0003794889711503928</v>
       </c>
       <c r="J17">
-        <v>0.001121821560709482</v>
+        <v>0.0003794889711503928</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.165314</v>
+        <v>0.2265353333333333</v>
       </c>
       <c r="N17">
-        <v>0.495942</v>
+        <v>0.6796059999999999</v>
       </c>
       <c r="O17">
-        <v>0.01488357983794147</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="P17">
-        <v>0.01488357983794148</v>
+        <v>0.01058918740701822</v>
       </c>
       <c r="Q17">
-        <v>0.001728633393333333</v>
+        <v>0.0007736181633333333</v>
       </c>
       <c r="R17">
-        <v>0.01555770054</v>
+        <v>0.00696256347</v>
       </c>
       <c r="S17">
-        <v>1.669672076274369E-05</v>
+        <v>4.018479834408039E-06</v>
       </c>
       <c r="T17">
-        <v>1.669672076274369E-05</v>
+        <v>4.01847983440804E-06</v>
       </c>
     </row>
   </sheetData>
